--- a/test.xlsx
+++ b/test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,22 +16,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Hello</t>
-  </si>
-  <si>
-    <t>Goodbye</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>SWC</t>
+  </si>
+  <si>
+    <t>SWN</t>
+  </si>
+  <si>
+    <t>55-Plus Friendship Club - Meaford</t>
+  </si>
+  <si>
+    <t>A Caring Soul</t>
+  </si>
+  <si>
+    <t>LON</t>
+  </si>
+  <si>
+    <t>Absolute Health and Wellness Centre - Foot Care and Orthotics</t>
+  </si>
+  <si>
+    <t>1.2.3. Look At Me Co-operative Nursery School</t>
+  </si>
+  <si>
+    <t>Acorn Christian Day Care</t>
+  </si>
+  <si>
+    <t>Action Medical - Woodstock</t>
+  </si>
+  <si>
+    <t>Activity Day at NSJ</t>
+  </si>
+  <si>
+    <t>Adult Protective Services of Grey and Bruce Counties</t>
+  </si>
+  <si>
+    <t>Afghan Socio-Cultural Association</t>
+  </si>
+  <si>
+    <t>AIM Drug Mart</t>
+  </si>
+  <si>
+    <t>Alexandra Marine and General Hospital - Peer Health Support Falls Prevention Program</t>
+  </si>
+  <si>
+    <t>Amabel-Sauble Child Care Centre</t>
+  </si>
+  <si>
+    <t>Andover Gardens Senior Apartments</t>
+  </si>
+  <si>
+    <t>Anfield Manor</t>
+  </si>
+  <si>
+    <t>Anne Hathaway Day Care Centre</t>
+  </si>
+  <si>
+    <t>Argyle Seniors-Affordable Housing Task Force Project</t>
+  </si>
+  <si>
+    <t>Arsenault Foot Services</t>
+  </si>
+  <si>
+    <t>Arva's Little School House</t>
+  </si>
+  <si>
+    <t>Association of Women of India in Canada - London Chapter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -54,14 +125,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -361,29 +440,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="77.5703125" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="b">
+      <c r="B1" s="2">
+        <v>12185</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>146143</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>173186</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>166632</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>12194</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
-        <v>42858.073611111111</v>
+      <c r="B6" s="2">
+        <v>12200</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>161087</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
+        <v>12214</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>167680</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2">
+        <v>12221</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>170025</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>12249</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2">
+        <v>12270</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>35348</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2">
+        <v>12273</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2">
+        <v>15685</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2">
+        <v>12285</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2">
+        <v>12292</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2">
+        <v>12301</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
